--- a/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1215,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2310,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT6">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT14">
         <v>0.36</v>
@@ -4032,7 +4032,7 @@
         <v>1.6</v>
       </c>
       <c r="AT15">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>1.83</v>
       </c>
       <c r="AT16">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>1.89</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT22">
         <v>0.36</v>
@@ -5751,7 +5751,7 @@
         <v>1.18</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU24">
         <v>1.37</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT28">
         <v>0.91</v>
@@ -7279,7 +7279,7 @@
         <v>1.92</v>
       </c>
       <c r="AT32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.73</v>
@@ -7849,7 +7849,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT35">
         <v>0.36</v>
@@ -8043,7 +8043,7 @@
         <v>1.67</v>
       </c>
       <c r="AT36">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU36">
         <v>1.62</v>
@@ -9377,7 +9377,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT43">
         <v>1.4</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT50">
         <v>0.91</v>
@@ -11672,7 +11672,7 @@
         <v>2.64</v>
       </c>
       <c r="AT55">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU55">
         <v>2.6</v>
@@ -12054,7 +12054,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU57">
         <v>1.45</v>
@@ -12245,7 +12245,7 @@
         <v>1.18</v>
       </c>
       <c r="AT58">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU58">
         <v>1.4</v>
@@ -13197,7 +13197,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT63">
         <v>1.1</v>
@@ -13391,7 +13391,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU64">
         <v>1.81</v>
@@ -15110,7 +15110,7 @@
         <v>2.27</v>
       </c>
       <c r="AT73">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU73">
         <v>2.1</v>
@@ -15298,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT74">
         <v>0.73</v>
@@ -15874,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU77">
         <v>1.19</v>
@@ -16253,10 +16253,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT79">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU79">
         <v>2.01</v>
@@ -17975,7 +17975,7 @@
         <v>1.33</v>
       </c>
       <c r="AT88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU88">
         <v>1.52</v>
@@ -18354,7 +18354,7 @@
         <v>2.6</v>
       </c>
       <c r="AS90">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT90">
         <v>1.4</v>
@@ -18930,7 +18930,7 @@
         <v>1.33</v>
       </c>
       <c r="AT93">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -19312,7 +19312,7 @@
         <v>1.18</v>
       </c>
       <c r="AT95">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU95">
         <v>1.37</v>
@@ -20267,7 +20267,7 @@
         <v>1.18</v>
       </c>
       <c r="AT100">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU100">
         <v>1.42</v>
@@ -21413,7 +21413,7 @@
         <v>2.27</v>
       </c>
       <c r="AT106">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU106">
         <v>1.79</v>
@@ -21601,7 +21601,7 @@
         <v>0.88</v>
       </c>
       <c r="AS107">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT107">
         <v>1.23</v>
@@ -22559,7 +22559,7 @@
         <v>1.6</v>
       </c>
       <c r="AT112">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU112">
         <v>1.33</v>
@@ -22941,7 +22941,7 @@
         <v>2.64</v>
       </c>
       <c r="AT114">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU114">
         <v>2.23</v>
@@ -23320,7 +23320,7 @@
         <v>1.57</v>
       </c>
       <c r="AS116">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT116">
         <v>1.91</v>
@@ -24851,7 +24851,7 @@
         <v>1.33</v>
       </c>
       <c r="AT124">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU124">
         <v>1.62</v>
@@ -25421,7 +25421,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT127">
         <v>0.83</v>
@@ -25615,7 +25615,7 @@
         <v>1.92</v>
       </c>
       <c r="AT128">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU128">
         <v>2.27</v>
@@ -26185,7 +26185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT131">
         <v>0.73</v>
@@ -26952,7 +26952,7 @@
         <v>1</v>
       </c>
       <c r="AT135">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -27525,7 +27525,7 @@
         <v>1.83</v>
       </c>
       <c r="AT138">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU138">
         <v>1.55</v>
@@ -27713,10 +27713,10 @@
         <v>0.88</v>
       </c>
       <c r="AS139">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT139">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU139">
         <v>1.35</v>
@@ -29817,7 +29817,7 @@
         <v>1.73</v>
       </c>
       <c r="AT150">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU150">
         <v>1.37</v>
@@ -30387,7 +30387,7 @@
         <v>2.78</v>
       </c>
       <c r="AS153">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT153">
         <v>2.64</v>
@@ -30772,7 +30772,7 @@
         <v>2</v>
       </c>
       <c r="AT155">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU155">
         <v>1.76</v>
@@ -30963,7 +30963,7 @@
         <v>2.64</v>
       </c>
       <c r="AT156">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU156">
         <v>2.22</v>
@@ -31151,7 +31151,7 @@
         <v>0.8</v>
       </c>
       <c r="AS157">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT157">
         <v>0.75</v>
@@ -32300,7 +32300,7 @@
         <v>1</v>
       </c>
       <c r="AT163">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU163">
         <v>1.58</v>
@@ -32488,7 +32488,7 @@
         <v>0.6</v>
       </c>
       <c r="AS164">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT164">
         <v>0.55</v>
@@ -32682,7 +32682,7 @@
         <v>1</v>
       </c>
       <c r="AT165">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU165">
         <v>1.33</v>
@@ -33634,7 +33634,7 @@
         <v>1.8</v>
       </c>
       <c r="AS170">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT170">
         <v>1.91</v>
@@ -34783,7 +34783,7 @@
         <v>1.73</v>
       </c>
       <c r="AT176">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU176">
         <v>1.42</v>
@@ -35217,6 +35217,579 @@
       </c>
       <c r="BK178">
         <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>4699866</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44996.33333333334</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>69</v>
+      </c>
+      <c r="H179" t="s">
+        <v>66</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>86</v>
+      </c>
+      <c r="P179" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q179">
+        <v>4</v>
+      </c>
+      <c r="R179">
+        <v>5</v>
+      </c>
+      <c r="S179">
+        <v>9</v>
+      </c>
+      <c r="T179">
+        <v>2.6</v>
+      </c>
+      <c r="U179">
+        <v>2.05</v>
+      </c>
+      <c r="V179">
+        <v>3.9</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>2.75</v>
+      </c>
+      <c r="Y179">
+        <v>2.75</v>
+      </c>
+      <c r="Z179">
+        <v>1.4</v>
+      </c>
+      <c r="AA179">
+        <v>7</v>
+      </c>
+      <c r="AB179">
+        <v>1.08</v>
+      </c>
+      <c r="AC179">
+        <v>2.23</v>
+      </c>
+      <c r="AD179">
+        <v>3.23</v>
+      </c>
+      <c r="AE179">
+        <v>3.45</v>
+      </c>
+      <c r="AF179">
+        <v>1.07</v>
+      </c>
+      <c r="AG179">
+        <v>7.5</v>
+      </c>
+      <c r="AH179">
+        <v>1.36</v>
+      </c>
+      <c r="AI179">
+        <v>3</v>
+      </c>
+      <c r="AJ179">
+        <v>2.1</v>
+      </c>
+      <c r="AK179">
+        <v>1.62</v>
+      </c>
+      <c r="AL179">
+        <v>1.85</v>
+      </c>
+      <c r="AM179">
+        <v>1.85</v>
+      </c>
+      <c r="AN179">
+        <v>1.22</v>
+      </c>
+      <c r="AO179">
+        <v>1.3</v>
+      </c>
+      <c r="AP179">
+        <v>1.83</v>
+      </c>
+      <c r="AQ179">
+        <v>2.18</v>
+      </c>
+      <c r="AR179">
+        <v>1.4</v>
+      </c>
+      <c r="AS179">
+        <v>2.08</v>
+      </c>
+      <c r="AT179">
+        <v>1.36</v>
+      </c>
+      <c r="AU179">
+        <v>1.31</v>
+      </c>
+      <c r="AV179">
+        <v>1.51</v>
+      </c>
+      <c r="AW179">
+        <v>2.82</v>
+      </c>
+      <c r="AX179">
+        <v>1.52</v>
+      </c>
+      <c r="AY179">
+        <v>7.6</v>
+      </c>
+      <c r="AZ179">
+        <v>3.04</v>
+      </c>
+      <c r="BA179">
+        <v>1.4</v>
+      </c>
+      <c r="BB179">
+        <v>1.53</v>
+      </c>
+      <c r="BC179">
+        <v>1.92</v>
+      </c>
+      <c r="BD179">
+        <v>2.54</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>5</v>
+      </c>
+      <c r="BG179">
+        <v>3</v>
+      </c>
+      <c r="BH179">
+        <v>3</v>
+      </c>
+      <c r="BI179">
+        <v>5</v>
+      </c>
+      <c r="BJ179">
+        <v>8</v>
+      </c>
+      <c r="BK179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>4699871</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44996.35416666666</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>76</v>
+      </c>
+      <c r="H180" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>86</v>
+      </c>
+      <c r="P180" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q180">
+        <v>6</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>10</v>
+      </c>
+      <c r="T180">
+        <v>2.88</v>
+      </c>
+      <c r="U180">
+        <v>2.1</v>
+      </c>
+      <c r="V180">
+        <v>3.3</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>3</v>
+      </c>
+      <c r="Y180">
+        <v>2.62</v>
+      </c>
+      <c r="Z180">
+        <v>1.44</v>
+      </c>
+      <c r="AA180">
+        <v>6.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.1</v>
+      </c>
+      <c r="AC180">
+        <v>2.24</v>
+      </c>
+      <c r="AD180">
+        <v>3.37</v>
+      </c>
+      <c r="AE180">
+        <v>3.05</v>
+      </c>
+      <c r="AF180">
+        <v>1.06</v>
+      </c>
+      <c r="AG180">
+        <v>8</v>
+      </c>
+      <c r="AH180">
+        <v>1.3</v>
+      </c>
+      <c r="AI180">
+        <v>3.4</v>
+      </c>
+      <c r="AJ180">
+        <v>1.93</v>
+      </c>
+      <c r="AK180">
+        <v>1.82</v>
+      </c>
+      <c r="AL180">
+        <v>1.7</v>
+      </c>
+      <c r="AM180">
+        <v>2.05</v>
+      </c>
+      <c r="AN180">
+        <v>1.33</v>
+      </c>
+      <c r="AO180">
+        <v>1.3</v>
+      </c>
+      <c r="AP180">
+        <v>1.65</v>
+      </c>
+      <c r="AQ180">
+        <v>1</v>
+      </c>
+      <c r="AR180">
+        <v>0.73</v>
+      </c>
+      <c r="AS180">
+        <v>1</v>
+      </c>
+      <c r="AT180">
+        <v>0.75</v>
+      </c>
+      <c r="AU180">
+        <v>1.63</v>
+      </c>
+      <c r="AV180">
+        <v>1.42</v>
+      </c>
+      <c r="AW180">
+        <v>3.05</v>
+      </c>
+      <c r="AX180">
+        <v>1.81</v>
+      </c>
+      <c r="AY180">
+        <v>7.3</v>
+      </c>
+      <c r="AZ180">
+        <v>2.34</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>1.48</v>
+      </c>
+      <c r="BC180">
+        <v>1.93</v>
+      </c>
+      <c r="BD180">
+        <v>2.4</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>3</v>
+      </c>
+      <c r="BH180">
+        <v>10</v>
+      </c>
+      <c r="BI180">
+        <v>4</v>
+      </c>
+      <c r="BJ180">
+        <v>17</v>
+      </c>
+      <c r="BK180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>4699870</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>77</v>
+      </c>
+      <c r="H181" t="s">
+        <v>74</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>113</v>
+      </c>
+      <c r="P181" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>9</v>
+      </c>
+      <c r="S181">
+        <v>10</v>
+      </c>
+      <c r="T181">
+        <v>2.1</v>
+      </c>
+      <c r="U181">
+        <v>2.3</v>
+      </c>
+      <c r="V181">
+        <v>4.6</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>3.25</v>
+      </c>
+      <c r="Y181">
+        <v>2.5</v>
+      </c>
+      <c r="Z181">
+        <v>1.5</v>
+      </c>
+      <c r="AA181">
+        <v>5.5</v>
+      </c>
+      <c r="AB181">
+        <v>1.12</v>
+      </c>
+      <c r="AC181">
+        <v>1.57</v>
+      </c>
+      <c r="AD181">
+        <v>3.8</v>
+      </c>
+      <c r="AE181">
+        <v>5</v>
+      </c>
+      <c r="AF181">
+        <v>1.05</v>
+      </c>
+      <c r="AG181">
+        <v>9</v>
+      </c>
+      <c r="AH181">
+        <v>1.25</v>
+      </c>
+      <c r="AI181">
+        <v>3.75</v>
+      </c>
+      <c r="AJ181">
+        <v>1.7</v>
+      </c>
+      <c r="AK181">
+        <v>1.95</v>
+      </c>
+      <c r="AL181">
+        <v>1.8</v>
+      </c>
+      <c r="AM181">
+        <v>1.91</v>
+      </c>
+      <c r="AN181">
+        <v>1.15</v>
+      </c>
+      <c r="AO181">
+        <v>1.22</v>
+      </c>
+      <c r="AP181">
+        <v>2.25</v>
+      </c>
+      <c r="AQ181">
+        <v>1.78</v>
+      </c>
+      <c r="AR181">
+        <v>0.91</v>
+      </c>
+      <c r="AS181">
+        <v>1.9</v>
+      </c>
+      <c r="AT181">
+        <v>0.83</v>
+      </c>
+      <c r="AU181">
+        <v>1.73</v>
+      </c>
+      <c r="AV181">
+        <v>1.38</v>
+      </c>
+      <c r="AW181">
+        <v>3.11</v>
+      </c>
+      <c r="AX181">
+        <v>1.26</v>
+      </c>
+      <c r="AY181">
+        <v>9</v>
+      </c>
+      <c r="AZ181">
+        <v>4.7</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>1.47</v>
+      </c>
+      <c r="BC181">
+        <v>1.93</v>
+      </c>
+      <c r="BD181">
+        <v>2.38</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>5</v>
+      </c>
+      <c r="BG181">
+        <v>4</v>
+      </c>
+      <c r="BH181">
+        <v>1</v>
+      </c>
+      <c r="BI181">
+        <v>2</v>
+      </c>
+      <c r="BJ181">
+        <v>6</v>
+      </c>
+      <c r="BK181">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,12 @@
     <t>['58', '90']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['12', '62', '76']</t>
+  </si>
+  <si>
     <t>['23', '49']</t>
   </si>
   <si>
@@ -854,6 +860,9 @@
   </si>
   <si>
     <t>['14', '17', '42']</t>
+  </si>
+  <si>
+    <t>['52', '62', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
         <v>0.75</v>
@@ -1928,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT4">
         <v>0.36</v>
@@ -2032,7 +2041,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2122,7 +2131,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2414,7 +2423,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>8</v>
@@ -2796,7 +2805,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -2987,7 +2996,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3074,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT10">
         <v>1.91</v>
@@ -3178,7 +3187,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3268,7 +3277,7 @@
         <v>1.73</v>
       </c>
       <c r="AT11">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3369,7 +3378,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3560,7 +3569,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3751,7 +3760,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>18</v>
@@ -3942,7 +3951,7 @@
         <v>86</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4029,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT15">
         <v>1.36</v>
@@ -4133,7 +4142,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4515,7 +4524,7 @@
         <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4602,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT18">
         <v>1.91</v>
@@ -4706,7 +4715,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4796,7 +4805,7 @@
         <v>1.92</v>
       </c>
       <c r="AT19">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5560,7 +5569,7 @@
         <v>1.92</v>
       </c>
       <c r="AT23">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU23">
         <v>1.92</v>
@@ -5661,7 +5670,7 @@
         <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5748,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT24">
         <v>1.36</v>
@@ -5939,7 +5948,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT25">
         <v>0.73</v>
@@ -6130,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT26">
         <v>0.36</v>
@@ -6616,7 +6625,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6706,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU29">
         <v>0.8100000000000001</v>
@@ -6807,7 +6816,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>16</v>
@@ -6897,7 +6906,7 @@
         <v>2.64</v>
       </c>
       <c r="AT30">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU30">
         <v>2.39</v>
@@ -7380,7 +7389,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7571,7 +7580,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7762,7 +7771,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7953,7 +7962,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8335,7 +8344,7 @@
         <v>106</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8526,7 +8535,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8616,7 +8625,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU39">
         <v>1.76</v>
@@ -8804,7 +8813,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT40">
         <v>0.91</v>
@@ -8908,7 +8917,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9099,7 +9108,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9189,7 +9198,7 @@
         <v>1.73</v>
       </c>
       <c r="AT42">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU42">
         <v>1.79</v>
@@ -9290,7 +9299,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9380,7 +9389,7 @@
         <v>1.9</v>
       </c>
       <c r="AT43">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU43">
         <v>2.5</v>
@@ -9481,7 +9490,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9571,7 +9580,7 @@
         <v>1.18</v>
       </c>
       <c r="AT44">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU44">
         <v>1.48</v>
@@ -9672,7 +9681,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>10</v>
@@ -9759,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT45">
         <v>0.91</v>
@@ -9950,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT46">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU46">
         <v>1.46</v>
@@ -10054,7 +10063,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>-1</v>
@@ -10144,7 +10153,7 @@
         <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU47">
         <v>1.84</v>
@@ -11773,7 +11782,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11863,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU56">
         <v>1.31</v>
@@ -12155,7 +12164,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -12433,10 +12442,10 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT59">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU59">
         <v>1.47</v>
@@ -12537,7 +12546,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>11</v>
@@ -12624,7 +12633,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>0.91</v>
@@ -12728,7 +12737,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12815,10 +12824,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT61">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU61">
         <v>1.19</v>
@@ -13006,7 +13015,7 @@
         <v>1.5</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT62">
         <v>0.73</v>
@@ -13200,7 +13209,7 @@
         <v>1.9</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU63">
         <v>2.19</v>
@@ -13301,7 +13310,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -13683,7 +13692,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14065,7 +14074,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -15020,7 +15029,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15107,7 +15116,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT73">
         <v>1.36</v>
@@ -15489,7 +15498,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT75">
         <v>0.83</v>
@@ -15593,7 +15602,7 @@
         <v>91</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15680,10 +15689,10 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT76">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU76">
         <v>1.24</v>
@@ -15784,7 +15793,7 @@
         <v>133</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15871,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT77">
         <v>0.83</v>
@@ -15975,7 +15984,7 @@
         <v>134</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16065,7 +16074,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU78">
         <v>1.46</v>
@@ -16447,7 +16456,7 @@
         <v>1.67</v>
       </c>
       <c r="AT80">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU80">
         <v>1.68</v>
@@ -16635,10 +16644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT81">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU81">
         <v>1.7</v>
@@ -16930,7 +16939,7 @@
         <v>82</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17312,7 +17321,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17503,7 +17512,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>13</v>
@@ -17694,7 +17703,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17885,7 +17894,7 @@
         <v>126</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>10</v>
@@ -18267,7 +18276,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18357,7 +18366,7 @@
         <v>2.08</v>
       </c>
       <c r="AT90">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>1.62</v>
@@ -18458,7 +18467,7 @@
         <v>86</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18545,10 +18554,10 @@
         <v>2.6</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT91">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU91">
         <v>1.44</v>
@@ -18649,7 +18658,7 @@
         <v>86</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18739,7 +18748,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -19031,7 +19040,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19118,7 +19127,7 @@
         <v>0.83</v>
       </c>
       <c r="AS94">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
         <v>1.23</v>
@@ -19309,7 +19318,7 @@
         <v>0.6</v>
       </c>
       <c r="AS95">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT95">
         <v>0.75</v>
@@ -19500,7 +19509,7 @@
         <v>0.86</v>
       </c>
       <c r="AS96">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT96">
         <v>0.83</v>
@@ -19694,7 +19703,7 @@
         <v>1.67</v>
       </c>
       <c r="AT97">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU97">
         <v>1.65</v>
@@ -19986,7 +19995,7 @@
         <v>86</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -20177,7 +20186,7 @@
         <v>117</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20559,7 +20568,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20646,7 +20655,7 @@
         <v>0.86</v>
       </c>
       <c r="AS102">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT102">
         <v>1.23</v>
@@ -21323,7 +21332,7 @@
         <v>113</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21410,7 +21419,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT106">
         <v>0.75</v>
@@ -21896,7 +21905,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>8</v>
@@ -21986,7 +21995,7 @@
         <v>1.83</v>
       </c>
       <c r="AT109">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU109">
         <v>1.65</v>
@@ -22177,7 +22186,7 @@
         <v>1.33</v>
       </c>
       <c r="AT110">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22278,7 +22287,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22365,7 +22374,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT111">
         <v>0.83</v>
@@ -22556,7 +22565,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
         <v>0.83</v>
@@ -22750,7 +22759,7 @@
         <v>1.67</v>
       </c>
       <c r="AT113">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU113">
         <v>1.61</v>
@@ -23132,7 +23141,7 @@
         <v>1.92</v>
       </c>
       <c r="AT115">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU115">
         <v>2.32</v>
@@ -23233,7 +23242,7 @@
         <v>119</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -24084,7 +24093,7 @@
         <v>0.43</v>
       </c>
       <c r="AS120">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT120">
         <v>0.75</v>
@@ -24379,7 +24388,7 @@
         <v>125</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24466,7 +24475,7 @@
         <v>0.78</v>
       </c>
       <c r="AS122">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT122">
         <v>1.23</v>
@@ -24570,7 +24579,7 @@
         <v>163</v>
       </c>
       <c r="P123" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24657,7 +24666,7 @@
         <v>0.14</v>
       </c>
       <c r="AS123">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT123">
         <v>0.36</v>
@@ -24761,7 +24770,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24952,7 +24961,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25143,7 +25152,7 @@
         <v>165</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -25233,7 +25242,7 @@
         <v>1.83</v>
       </c>
       <c r="AT126">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU126">
         <v>1.6</v>
@@ -25525,7 +25534,7 @@
         <v>167</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25716,7 +25725,7 @@
         <v>86</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25806,7 +25815,7 @@
         <v>1.33</v>
       </c>
       <c r="AT129">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU129">
         <v>1.34</v>
@@ -25994,7 +26003,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT130">
         <v>0.36</v>
@@ -26289,7 +26298,7 @@
         <v>169</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26379,7 +26388,7 @@
         <v>1.18</v>
       </c>
       <c r="AT132">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU132">
         <v>1.51</v>
@@ -26480,7 +26489,7 @@
         <v>170</v>
       </c>
       <c r="P133" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26567,7 +26576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT133">
         <v>0.91</v>
@@ -26758,7 +26767,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT134">
         <v>0.91</v>
@@ -27143,7 +27152,7 @@
         <v>2.64</v>
       </c>
       <c r="AT136">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU136">
         <v>2.22</v>
@@ -27334,7 +27343,7 @@
         <v>1.73</v>
       </c>
       <c r="AT137">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU137">
         <v>1.43</v>
@@ -27435,7 +27444,7 @@
         <v>173</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>5</v>
@@ -27626,7 +27635,7 @@
         <v>174</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>2</v>
@@ -27817,7 +27826,7 @@
         <v>86</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>8</v>
@@ -27907,7 +27916,7 @@
         <v>2</v>
       </c>
       <c r="AT140">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU140">
         <v>1.79</v>
@@ -28199,7 +28208,7 @@
         <v>86</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28390,7 +28399,7 @@
         <v>176</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28772,7 +28781,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28859,7 +28868,7 @@
         <v>0.78</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT145">
         <v>0.75</v>
@@ -28963,7 +28972,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29053,7 +29062,7 @@
         <v>1.18</v>
       </c>
       <c r="AT146">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU146">
         <v>1.49</v>
@@ -29241,10 +29250,10 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT147">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU147">
         <v>1.33</v>
@@ -29345,7 +29354,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q148">
         <v>6</v>
@@ -29432,7 +29441,7 @@
         <v>0.43</v>
       </c>
       <c r="AS148">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT148">
         <v>0.73</v>
@@ -29626,7 +29635,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU149">
         <v>1.63</v>
@@ -30005,7 +30014,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT151">
         <v>0.91</v>
@@ -30196,7 +30205,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT152">
         <v>0.91</v>
@@ -30300,7 +30309,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30390,7 +30399,7 @@
         <v>1.9</v>
       </c>
       <c r="AT153">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU153">
         <v>1.79</v>
@@ -30491,7 +30500,7 @@
         <v>86</v>
       </c>
       <c r="P154" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30682,7 +30691,7 @@
         <v>185</v>
       </c>
       <c r="P155" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>10</v>
@@ -31828,7 +31837,7 @@
         <v>86</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32210,7 +32219,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32491,7 +32500,7 @@
         <v>1.9</v>
       </c>
       <c r="AT164">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU164">
         <v>1.69</v>
@@ -32679,7 +32688,7 @@
         <v>1.56</v>
       </c>
       <c r="AS165">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT165">
         <v>1.36</v>
@@ -32873,7 +32882,7 @@
         <v>1.18</v>
       </c>
       <c r="AT166">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU166">
         <v>1.52</v>
@@ -32974,7 +32983,7 @@
         <v>194</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q167">
         <v>12</v>
@@ -33061,7 +33070,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT167">
         <v>0.73</v>
@@ -33165,7 +33174,7 @@
         <v>152</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>7</v>
@@ -33252,10 +33261,10 @@
         <v>0.89</v>
       </c>
       <c r="AS168">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT168">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU168">
         <v>1.91</v>
@@ -33356,7 +33365,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33443,10 +33452,10 @@
         <v>1.56</v>
       </c>
       <c r="AS169">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT169">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU169">
         <v>1.46</v>
@@ -33547,7 +33556,7 @@
         <v>156</v>
       </c>
       <c r="P170" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q170">
         <v>4</v>
@@ -33738,7 +33747,7 @@
         <v>196</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -33929,7 +33938,7 @@
         <v>197</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q172">
         <v>5</v>
@@ -34311,7 +34320,7 @@
         <v>199</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q174">
         <v>8</v>
@@ -34884,7 +34893,7 @@
         <v>201</v>
       </c>
       <c r="P177" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q177">
         <v>7</v>
@@ -35075,7 +35084,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q178">
         <v>2</v>
@@ -35790,6 +35799,770 @@
       </c>
       <c r="BK181">
         <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>4699869</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>67</v>
+      </c>
+      <c r="H182" t="s">
+        <v>71</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>3</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>203</v>
+      </c>
+      <c r="P182" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>5</v>
+      </c>
+      <c r="U182">
+        <v>2.2</v>
+      </c>
+      <c r="V182">
+        <v>2.2</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>2.99</v>
+      </c>
+      <c r="Y182">
+        <v>2.66</v>
+      </c>
+      <c r="Z182">
+        <v>1.44</v>
+      </c>
+      <c r="AA182">
+        <v>5.2</v>
+      </c>
+      <c r="AB182">
+        <v>1.12</v>
+      </c>
+      <c r="AC182">
+        <v>4.55</v>
+      </c>
+      <c r="AD182">
+        <v>3.75</v>
+      </c>
+      <c r="AE182">
+        <v>1.58</v>
+      </c>
+      <c r="AF182">
+        <v>1.04</v>
+      </c>
+      <c r="AG182">
+        <v>12.25</v>
+      </c>
+      <c r="AH182">
+        <v>1.27</v>
+      </c>
+      <c r="AI182">
+        <v>3.42</v>
+      </c>
+      <c r="AJ182">
+        <v>1.87</v>
+      </c>
+      <c r="AK182">
+        <v>1.89</v>
+      </c>
+      <c r="AL182">
+        <v>1.88</v>
+      </c>
+      <c r="AM182">
+        <v>1.82</v>
+      </c>
+      <c r="AN182">
+        <v>2.2</v>
+      </c>
+      <c r="AO182">
+        <v>1.22</v>
+      </c>
+      <c r="AP182">
+        <v>1.15</v>
+      </c>
+      <c r="AQ182">
+        <v>1</v>
+      </c>
+      <c r="AR182">
+        <v>1.1</v>
+      </c>
+      <c r="AS182">
+        <v>0.92</v>
+      </c>
+      <c r="AT182">
+        <v>1.27</v>
+      </c>
+      <c r="AU182">
+        <v>1.31</v>
+      </c>
+      <c r="AV182">
+        <v>1.33</v>
+      </c>
+      <c r="AW182">
+        <v>2.64</v>
+      </c>
+      <c r="AX182">
+        <v>4.65</v>
+      </c>
+      <c r="AY182">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ182">
+        <v>1.26</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>1.49</v>
+      </c>
+      <c r="BC182">
+        <v>1.83</v>
+      </c>
+      <c r="BD182">
+        <v>2.25</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>4</v>
+      </c>
+      <c r="BG182">
+        <v>5</v>
+      </c>
+      <c r="BH182">
+        <v>2</v>
+      </c>
+      <c r="BI182">
+        <v>2</v>
+      </c>
+      <c r="BJ182">
+        <v>6</v>
+      </c>
+      <c r="BK182">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>4699872</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>65</v>
+      </c>
+      <c r="H183" t="s">
+        <v>79</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183" t="s">
+        <v>204</v>
+      </c>
+      <c r="P183" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q183">
+        <v>4</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>7</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2.2</v>
+      </c>
+      <c r="V183">
+        <v>4.75</v>
+      </c>
+      <c r="W183">
+        <v>1.38</v>
+      </c>
+      <c r="X183">
+        <v>2.8</v>
+      </c>
+      <c r="Y183">
+        <v>2.75</v>
+      </c>
+      <c r="Z183">
+        <v>1.4</v>
+      </c>
+      <c r="AA183">
+        <v>6.25</v>
+      </c>
+      <c r="AB183">
+        <v>1.09</v>
+      </c>
+      <c r="AC183">
+        <v>1.61</v>
+      </c>
+      <c r="AD183">
+        <v>3.7</v>
+      </c>
+      <c r="AE183">
+        <v>4.35</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>12.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.27</v>
+      </c>
+      <c r="AI183">
+        <v>3.4</v>
+      </c>
+      <c r="AJ183">
+        <v>1.87</v>
+      </c>
+      <c r="AK183">
+        <v>1.89</v>
+      </c>
+      <c r="AL183">
+        <v>1.85</v>
+      </c>
+      <c r="AM183">
+        <v>1.85</v>
+      </c>
+      <c r="AN183">
+        <v>1.17</v>
+      </c>
+      <c r="AO183">
+        <v>1.22</v>
+      </c>
+      <c r="AP183">
+        <v>2.15</v>
+      </c>
+      <c r="AQ183">
+        <v>2.27</v>
+      </c>
+      <c r="AR183">
+        <v>1.4</v>
+      </c>
+      <c r="AS183">
+        <v>2.33</v>
+      </c>
+      <c r="AT183">
+        <v>1.27</v>
+      </c>
+      <c r="AU183">
+        <v>1.91</v>
+      </c>
+      <c r="AV183">
+        <v>1.47</v>
+      </c>
+      <c r="AW183">
+        <v>3.38</v>
+      </c>
+      <c r="AX183">
+        <v>1.27</v>
+      </c>
+      <c r="AY183">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ183">
+        <v>4.6</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>1.59</v>
+      </c>
+      <c r="BC183">
+        <v>1.95</v>
+      </c>
+      <c r="BD183">
+        <v>2.47</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>7</v>
+      </c>
+      <c r="BG183">
+        <v>2</v>
+      </c>
+      <c r="BH183">
+        <v>2</v>
+      </c>
+      <c r="BI183">
+        <v>3</v>
+      </c>
+      <c r="BJ183">
+        <v>9</v>
+      </c>
+      <c r="BK183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>4699867</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44997.35416666666</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>78</v>
+      </c>
+      <c r="H184" t="s">
+        <v>80</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184" t="s">
+        <v>86</v>
+      </c>
+      <c r="P184" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q184">
+        <v>1</v>
+      </c>
+      <c r="R184">
+        <v>6</v>
+      </c>
+      <c r="S184">
+        <v>7</v>
+      </c>
+      <c r="T184">
+        <v>4</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>2.6</v>
+      </c>
+      <c r="W184">
+        <v>1.42</v>
+      </c>
+      <c r="X184">
+        <v>2.65</v>
+      </c>
+      <c r="Y184">
+        <v>2.9</v>
+      </c>
+      <c r="Z184">
+        <v>1.35</v>
+      </c>
+      <c r="AA184">
+        <v>6.75</v>
+      </c>
+      <c r="AB184">
+        <v>1.08</v>
+      </c>
+      <c r="AC184">
+        <v>3.6</v>
+      </c>
+      <c r="AD184">
+        <v>3.1</v>
+      </c>
+      <c r="AE184">
+        <v>1.91</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
+        <v>11</v>
+      </c>
+      <c r="AH184">
+        <v>1.31</v>
+      </c>
+      <c r="AI184">
+        <v>3.18</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>1.8</v>
+      </c>
+      <c r="AL184">
+        <v>1.8</v>
+      </c>
+      <c r="AM184">
+        <v>1.9</v>
+      </c>
+      <c r="AN184">
+        <v>1.68</v>
+      </c>
+      <c r="AO184">
+        <v>1.27</v>
+      </c>
+      <c r="AP184">
+        <v>1.3</v>
+      </c>
+      <c r="AQ184">
+        <v>1.6</v>
+      </c>
+      <c r="AR184">
+        <v>0.55</v>
+      </c>
+      <c r="AS184">
+        <v>1.55</v>
+      </c>
+      <c r="AT184">
+        <v>0.58</v>
+      </c>
+      <c r="AU184">
+        <v>1.36</v>
+      </c>
+      <c r="AV184">
+        <v>1.48</v>
+      </c>
+      <c r="AW184">
+        <v>2.84</v>
+      </c>
+      <c r="AX184">
+        <v>2.4</v>
+      </c>
+      <c r="AY184">
+        <v>7.2</v>
+      </c>
+      <c r="AZ184">
+        <v>1.78</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>1.63</v>
+      </c>
+      <c r="BC184">
+        <v>2.01</v>
+      </c>
+      <c r="BD184">
+        <v>2.57</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>2</v>
+      </c>
+      <c r="BG184">
+        <v>3</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>7</v>
+      </c>
+      <c r="BJ184">
+        <v>6</v>
+      </c>
+      <c r="BK184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>4699868</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44997.375</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>73</v>
+      </c>
+      <c r="H185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>86</v>
+      </c>
+      <c r="P185" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>9</v>
+      </c>
+      <c r="S185">
+        <v>14</v>
+      </c>
+      <c r="T185">
+        <v>7.5</v>
+      </c>
+      <c r="U185">
+        <v>2.5</v>
+      </c>
+      <c r="V185">
+        <v>1.73</v>
+      </c>
+      <c r="W185">
+        <v>1.3</v>
+      </c>
+      <c r="X185">
+        <v>3.2</v>
+      </c>
+      <c r="Y185">
+        <v>2.4</v>
+      </c>
+      <c r="Z185">
+        <v>1.5</v>
+      </c>
+      <c r="AA185">
+        <v>5.25</v>
+      </c>
+      <c r="AB185">
+        <v>1.12</v>
+      </c>
+      <c r="AC185">
+        <v>7.7</v>
+      </c>
+      <c r="AD185">
+        <v>4.9</v>
+      </c>
+      <c r="AE185">
+        <v>1.27</v>
+      </c>
+      <c r="AF185">
+        <v>1.02</v>
+      </c>
+      <c r="AG185">
+        <v>16.75</v>
+      </c>
+      <c r="AH185">
+        <v>1.2</v>
+      </c>
+      <c r="AI185">
+        <v>4.1</v>
+      </c>
+      <c r="AJ185">
+        <v>1.76</v>
+      </c>
+      <c r="AK185">
+        <v>1.96</v>
+      </c>
+      <c r="AL185">
+        <v>2</v>
+      </c>
+      <c r="AM185">
+        <v>1.72</v>
+      </c>
+      <c r="AN185">
+        <v>3.2</v>
+      </c>
+      <c r="AO185">
+        <v>1.13</v>
+      </c>
+      <c r="AP185">
+        <v>1.07</v>
+      </c>
+      <c r="AQ185">
+        <v>1.18</v>
+      </c>
+      <c r="AR185">
+        <v>2.64</v>
+      </c>
+      <c r="AS185">
+        <v>1.08</v>
+      </c>
+      <c r="AT185">
+        <v>2.67</v>
+      </c>
+      <c r="AU185">
+        <v>1.52</v>
+      </c>
+      <c r="AV185">
+        <v>1.76</v>
+      </c>
+      <c r="AW185">
+        <v>3.28</v>
+      </c>
+      <c r="AX185">
+        <v>6.45</v>
+      </c>
+      <c r="AY185">
+        <v>11</v>
+      </c>
+      <c r="AZ185">
+        <v>1.15</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>1.67</v>
+      </c>
+      <c r="BD185">
+        <v>2.07</v>
+      </c>
+      <c r="BE185">
+        <v>2.67</v>
+      </c>
+      <c r="BF185">
+        <v>3</v>
+      </c>
+      <c r="BG185">
+        <v>10</v>
+      </c>
+      <c r="BH185">
+        <v>1</v>
+      </c>
+      <c r="BI185">
+        <v>7</v>
+      </c>
+      <c r="BJ185">
+        <v>4</v>
+      </c>
+      <c r="BK185">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.92</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT5" t="n">
         <v>2.67</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT9" t="n">
         <v>0.91</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT12" t="n">
         <v>0.73</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU17" t="n">
         <v>1.67</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU21" t="n">
         <v>1.76</v>
@@ -4963,7 +4963,7 @@
         <v>2.08</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.28</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU27" t="n">
         <v>1.64</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT29" t="n">
         <v>1.27</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT30" t="n">
         <v>0.58</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU33" t="n">
         <v>1.87</v>
@@ -7399,7 +7399,7 @@
         <v>1.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU34" t="n">
         <v>2.04</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU38" t="n">
         <v>2.69</v>
@@ -8617,7 +8617,7 @@
         <v>1.55</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU40" t="n">
         <v>1.3</v>
@@ -8817,7 +8817,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT41" t="n">
         <v>0.83</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT44" t="n">
         <v>0.58</v>
@@ -10238,10 +10238,10 @@
         <v>0.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU48" t="n">
         <v>1.77</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU51" t="n">
         <v>1.85</v>
@@ -11256,7 +11256,7 @@
         <v>1.92</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>2.12</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.75</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT56" t="n">
         <v>2.67</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT58" t="n">
         <v>0.83</v>
@@ -12677,7 +12677,7 @@
         <v>2.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU60" t="n">
         <v>2.18</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT65" t="n">
         <v>0.91</v>
@@ -13895,7 +13895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.7</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU67" t="n">
         <v>2.57</v>
@@ -14704,7 +14704,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT70" t="n">
         <v>0.83</v>
@@ -14910,7 +14910,7 @@
         <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU71" t="n">
         <v>1.65</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU72" t="n">
         <v>1.82</v>
@@ -17143,7 +17143,7 @@
         <v>1.73</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU82" t="n">
         <v>1.54</v>
@@ -17343,10 +17343,10 @@
         <v>0.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU83" t="n">
         <v>1.48</v>
@@ -17952,10 +17952,10 @@
         <v>0.4</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18158,7 +18158,7 @@
         <v>1.83</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU87" t="n">
         <v>1.76</v>
@@ -18358,7 +18358,7 @@
         <v>2.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT88" t="n">
         <v>1.36</v>
@@ -18561,7 +18561,7 @@
         <v>2.2</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT89" t="n">
         <v>1.91</v>
@@ -19170,7 +19170,7 @@
         <v>0.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT92" t="n">
         <v>0.58</v>
@@ -19579,7 +19579,7 @@
         <v>1.55</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU98" t="n">
         <v>2.22</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT100" t="n">
         <v>1.36</v>
@@ -21203,7 +21203,7 @@
         <v>1.08</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU102" t="n">
         <v>1.5</v>
@@ -21403,10 +21403,10 @@
         <v>0.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU103" t="n">
         <v>1.71</v>
@@ -22218,7 +22218,7 @@
         <v>2.08</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU107" t="n">
         <v>1.56</v>
@@ -22421,7 +22421,7 @@
         <v>1.33</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU108" t="n">
         <v>1.27</v>
@@ -22824,7 +22824,7 @@
         <v>2.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT110" t="n">
         <v>1.27</v>
@@ -23636,7 +23636,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT114" t="n">
         <v>1.36</v>
@@ -24248,7 +24248,7 @@
         <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU117" t="n">
         <v>1.84</v>
@@ -24448,7 +24448,7 @@
         <v>1.29</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT118" t="n">
         <v>0.91</v>
@@ -24651,7 +24651,7 @@
         <v>0.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT119" t="n">
         <v>0.36</v>
@@ -24857,7 +24857,7 @@
         <v>1.08</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU120" t="n">
         <v>1.45</v>
@@ -25263,7 +25263,7 @@
         <v>0.92</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.4</v>
@@ -25466,7 +25466,7 @@
         <v>2.33</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU123" t="n">
         <v>1.87</v>
@@ -25666,7 +25666,7 @@
         <v>0.57</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT124" t="n">
         <v>0.75</v>
@@ -25872,7 +25872,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU125" t="n">
         <v>1.64</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT132" t="n">
         <v>1.27</v>
@@ -27496,7 +27496,7 @@
         <v>1.08</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU133" t="n">
         <v>1.43</v>
@@ -27899,7 +27899,7 @@
         <v>1.86</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT135" t="n">
         <v>1.36</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT136" t="n">
         <v>1.27</v>
@@ -29120,7 +29120,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU141" t="n">
         <v>1.36</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT142" t="n">
         <v>1.91</v>
@@ -29526,7 +29526,7 @@
         <v>1.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU143" t="n">
         <v>1.62</v>
@@ -29932,7 +29932,7 @@
         <v>0.92</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU145" t="n">
         <v>1.4</v>
@@ -30132,7 +30132,7 @@
         <v>1.75</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT146" t="n">
         <v>1.27</v>
@@ -30741,7 +30741,7 @@
         <v>0.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT149" t="n">
         <v>0.58</v>
@@ -31353,7 +31353,7 @@
         <v>0.92</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT156" t="n">
         <v>0.83</v>
@@ -32368,7 +32368,7 @@
         <v>2.08</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU157" t="n">
         <v>1.37</v>
@@ -32571,7 +32571,7 @@
         <v>1.83</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU158" t="n">
         <v>1.66</v>
@@ -32974,7 +32974,7 @@
         <v>0.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT160" t="n">
         <v>0.73</v>
@@ -33180,7 +33180,7 @@
         <v>1.92</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU161" t="n">
         <v>2.26</v>
@@ -33383,7 +33383,7 @@
         <v>1.33</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU162" t="n">
         <v>1.39</v>
@@ -33583,7 +33583,7 @@
         <v>0.9</v>
       </c>
       <c r="AS163" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT163" t="n">
         <v>0.83</v>
@@ -34192,7 +34192,7 @@
         <v>2.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT166" t="n">
         <v>2.67</v>
@@ -35210,7 +35210,7 @@
         <v>1.92</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU171" t="n">
         <v>2.2</v>
@@ -35613,7 +35613,7 @@
         <v>0.4</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT173" t="n">
         <v>0.36</v>
@@ -35819,7 +35819,7 @@
         <v>2</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU174" t="n">
         <v>1.73</v>
@@ -36019,7 +36019,7 @@
         <v>0.91</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT175" t="n">
         <v>0.83</v>
@@ -36428,7 +36428,7 @@
         <v>1.83</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU177" t="n">
         <v>1.69</v>
@@ -37034,7 +37034,7 @@
         <v>0.73</v>
       </c>
       <c r="AS180" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT180" t="n">
         <v>0.75</v>
@@ -38104,6 +38104,818 @@
       </c>
       <c r="BK185" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4699878</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45003.33333333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Muang Thong United</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>4</v>
+      </c>
+      <c r="R186" t="n">
+        <v>6</v>
+      </c>
+      <c r="S186" t="n">
+        <v>10</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4699879</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45003.33333333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Nong Bua Pitchaya</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>9</v>
+      </c>
+      <c r="R187" t="n">
+        <v>4</v>
+      </c>
+      <c r="S187" t="n">
+        <v>13</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4699874</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45003.35416666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Buriram United</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Khon Kaen United</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>4</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>5</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['20', '45+8', '79', '83']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>2</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>4</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V188" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4699875</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Nakhon Ratchasima</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Chiangrai United</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>2</v>
+      </c>
+      <c r="L189" t="n">
+        <v>3</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>4</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['35', '50', '90+5']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>6</v>
+      </c>
+      <c r="R189" t="n">
+        <v>5</v>
+      </c>
+      <c r="S189" t="n">
+        <v>11</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT3" t="n">
         <v>1.36</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT4" t="n">
         <v>0.33</v>
@@ -1715,7 +1715,7 @@
         <v>2.08</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>1.08</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT15" t="n">
         <v>1.5</v>
@@ -3745,7 +3745,7 @@
         <v>1.92</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU16" t="n">
         <v>1.89</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT20" t="n">
         <v>0.83</v>
@@ -5166,7 +5166,7 @@
         <v>1.77</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU23" t="n">
         <v>1.92</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5572,7 +5572,7 @@
         <v>2.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>2.38</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT26" t="n">
         <v>0.42</v>
@@ -6587,7 +6587,7 @@
         <v>2.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU30" t="n">
         <v>2.39</v>
@@ -6993,7 +6993,7 @@
         <v>1.77</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU32" t="n">
         <v>1.73</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.62</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT40" t="n">
         <v>0.83</v>
@@ -9429,7 +9429,7 @@
         <v>1.08</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU44" t="n">
         <v>1.48</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT45" t="n">
         <v>0.83</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.27</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT52" t="n">
         <v>0.42</v>
@@ -11662,7 +11662,7 @@
         <v>2.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU55" t="n">
         <v>2.6</v>
@@ -12271,7 +12271,7 @@
         <v>1.08</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.4</v>
@@ -12471,10 +12471,10 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU59" t="n">
         <v>1.47</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT61" t="n">
         <v>1.27</v>
@@ -13080,10 +13080,10 @@
         <v>1.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU62" t="n">
         <v>1.1</v>
@@ -13489,7 +13489,7 @@
         <v>1.83</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.81</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -15519,7 +15519,7 @@
         <v>2.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU74" t="n">
         <v>1.64</v>
@@ -15719,7 +15719,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>0.83</v>
@@ -15922,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT76" t="n">
         <v>2.67</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.19</v>
@@ -16534,7 +16534,7 @@
         <v>1.9</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU79" t="n">
         <v>2.01</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT80" t="n">
         <v>1.27</v>
@@ -16940,7 +16940,7 @@
         <v>2.33</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU81" t="n">
         <v>1.7</v>
@@ -18967,7 +18967,7 @@
         <v>2.6</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT91" t="n">
         <v>2.67</v>
@@ -19173,7 +19173,7 @@
         <v>1.46</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19376,7 +19376,7 @@
         <v>1.33</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.35</v>
@@ -19576,7 +19576,7 @@
         <v>0.83</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT94" t="n">
         <v>1.36</v>
@@ -19779,10 +19779,10 @@
         <v>0.6</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU95" t="n">
         <v>1.37</v>
@@ -20185,7 +20185,7 @@
         <v>1.2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT97" t="n">
         <v>1.27</v>
@@ -21000,7 +21000,7 @@
         <v>1.92</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU101" t="n">
         <v>1.64</v>
@@ -21200,7 +21200,7 @@
         <v>0.86</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
         <v>1.36</v>
@@ -22015,7 +22015,7 @@
         <v>2.33</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU106" t="n">
         <v>1.79</v>
@@ -23027,7 +23027,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT111" t="n">
         <v>0.83</v>
@@ -23230,10 +23230,10 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.33</v>
@@ -23433,10 +23433,10 @@
         <v>0.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU113" t="n">
         <v>1.61</v>
@@ -24854,7 +24854,7 @@
         <v>0.43</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>0.6899999999999999</v>
@@ -25060,7 +25060,7 @@
         <v>1.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU121" t="n">
         <v>1.37</v>
@@ -25260,7 +25260,7 @@
         <v>0.78</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT122" t="n">
         <v>1.36</v>
@@ -25669,7 +25669,7 @@
         <v>1.46</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU124" t="n">
         <v>1.62</v>
@@ -25869,7 +25869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT125" t="n">
         <v>0.6899999999999999</v>
@@ -26075,7 +26075,7 @@
         <v>1.92</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU126" t="n">
         <v>1.6</v>
@@ -26481,7 +26481,7 @@
         <v>1.77</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>2.27</v>
@@ -27090,7 +27090,7 @@
         <v>1.9</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU131" t="n">
         <v>1.77</v>
@@ -27493,7 +27493,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT133" t="n">
         <v>0.83</v>
@@ -27696,7 +27696,7 @@
         <v>1.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT134" t="n">
         <v>0.83</v>
@@ -28308,7 +28308,7 @@
         <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU137" t="n">
         <v>1.43</v>
@@ -28511,7 +28511,7 @@
         <v>1.92</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.55</v>
@@ -28714,7 +28714,7 @@
         <v>2.08</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU139" t="n">
         <v>1.35</v>
@@ -29523,7 +29523,7 @@
         <v>0.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT143" t="n">
         <v>0.33</v>
@@ -29929,7 +29929,7 @@
         <v>0.78</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT145" t="n">
         <v>0.6899999999999999</v>
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT147" t="n">
         <v>1.27</v>
@@ -30538,10 +30538,10 @@
         <v>0.43</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU148" t="n">
         <v>1.46</v>
@@ -30744,7 +30744,7 @@
         <v>1.17</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU149" t="n">
         <v>1.63</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT152" t="n">
         <v>0.83</v>
@@ -31756,7 +31756,7 @@
         <v>1.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT154" t="n">
         <v>2</v>
@@ -31962,7 +31962,7 @@
         <v>1.83</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU155" t="n">
         <v>1.76</v>
@@ -32165,7 +32165,7 @@
         <v>2.67</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU156" t="n">
         <v>2.22</v>
@@ -32977,7 +32977,7 @@
         <v>1.17</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33586,7 +33586,7 @@
         <v>1.17</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.58</v>
@@ -33789,7 +33789,7 @@
         <v>1.9</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU164" t="n">
         <v>1.69</v>
@@ -33989,7 +33989,7 @@
         <v>1.56</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT165" t="n">
         <v>1.5</v>
@@ -34395,10 +34395,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -34801,7 +34801,7 @@
         <v>1.56</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT169" t="n">
         <v>1.27</v>
@@ -35410,7 +35410,7 @@
         <v>0.9</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT172" t="n">
         <v>0.83</v>
@@ -36225,7 +36225,7 @@
         <v>1.67</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU176" t="n">
         <v>1.42</v>
@@ -36631,7 +36631,7 @@
         <v>1.33</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU178" t="n">
         <v>1.44</v>
@@ -37037,7 +37037,7 @@
         <v>1.17</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU180" t="n">
         <v>1.63</v>
@@ -37240,7 +37240,7 @@
         <v>1.9</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.73</v>
@@ -37440,7 +37440,7 @@
         <v>1.1</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AT182" t="n">
         <v>1.27</v>
@@ -37846,10 +37846,10 @@
         <v>0.55</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU184" t="n">
         <v>1.36</v>
@@ -38049,7 +38049,7 @@
         <v>2.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT185" t="n">
         <v>2.67</v>
@@ -39728,6 +39728,818 @@
       </c>
       <c r="BK193" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4699883</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Khon Kaen United</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>3</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['22', '42', '47']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>6</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1</v>
+      </c>
+      <c r="S194" t="n">
+        <v>7</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4699888</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45018.35416666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Nakhon Ratchasima</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>7</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>7</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4699881</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Nong Bua Pitchaya</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>BEC Tero Sasana</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['68', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>6</v>
+      </c>
+      <c r="S196" t="n">
+        <v>11</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4699885</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45019.35416666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Lampang</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Bangkok Glass</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>3</v>
+      </c>
+      <c r="R197" t="n">
+        <v>12</v>
+      </c>
+      <c r="S197" t="n">
+        <v>15</v>
+      </c>
+      <c r="T197" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT2" t="n">
         <v>0.6899999999999999</v>
@@ -1512,7 +1512,7 @@
         <v>1.46</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT7" t="n">
         <v>0.92</v>
@@ -2121,7 +2121,7 @@
         <v>1.92</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.42</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT17" t="n">
         <v>0.6899999999999999</v>
@@ -4354,7 +4354,7 @@
         <v>1.77</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.62</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU20" t="n">
         <v>1.46</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT22" t="n">
         <v>0.33</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT25" t="n">
         <v>0.75</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>0.83</v>
@@ -6384,7 +6384,7 @@
         <v>1.17</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU29" t="n">
         <v>0.8100000000000001</v>
@@ -6790,7 +6790,7 @@
         <v>1.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT35" t="n">
         <v>0.42</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT37" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>1.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU39" t="n">
         <v>1.76</v>
@@ -8820,7 +8820,7 @@
         <v>1.46</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU41" t="n">
         <v>1.8</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU42" t="n">
         <v>1.79</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>2.5</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU46" t="n">
         <v>1.46</v>
@@ -10038,7 +10038,7 @@
         <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU47" t="n">
         <v>1.84</v>
@@ -10444,7 +10444,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU49" t="n">
         <v>1.84</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT50" t="n">
         <v>0.83</v>
@@ -11865,7 +11865,7 @@
         <v>1.17</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU56" t="n">
         <v>1.31</v>
@@ -12065,7 +12065,7 @@
         <v>3</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT57" t="n">
         <v>1.5</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT60" t="n">
         <v>0.83</v>
@@ -12880,7 +12880,7 @@
         <v>1.42</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU61" t="n">
         <v>1.19</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU63" t="n">
         <v>2.19</v>
@@ -14707,7 +14707,7 @@
         <v>1.08</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU70" t="n">
         <v>1.48</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT73" t="n">
         <v>1.5</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT74" t="n">
         <v>0.75</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU75" t="n">
         <v>1.3</v>
@@ -15925,7 +15925,7 @@
         <v>1.42</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU76" t="n">
         <v>1.24</v>
@@ -16328,10 +16328,10 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU78" t="n">
         <v>1.46</v>
@@ -16531,7 +16531,7 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.92</v>
@@ -16737,7 +16737,7 @@
         <v>1.62</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU80" t="n">
         <v>1.68</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT81" t="n">
         <v>0.77</v>
@@ -18764,10 +18764,10 @@
         <v>2.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU90" t="n">
         <v>1.62</v>
@@ -18970,7 +18970,7 @@
         <v>0.85</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU91" t="n">
         <v>1.44</v>
@@ -19373,7 +19373,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19982,10 +19982,10 @@
         <v>0.86</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU96" t="n">
         <v>1.74</v>
@@ -20188,7 +20188,7 @@
         <v>1.62</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU97" t="n">
         <v>1.65</v>
@@ -22012,7 +22012,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT106" t="n">
         <v>0.92</v>
@@ -22215,7 +22215,7 @@
         <v>0.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT107" t="n">
         <v>1.36</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT108" t="n">
         <v>0.33</v>
@@ -22624,7 +22624,7 @@
         <v>1.92</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU109" t="n">
         <v>1.65</v>
@@ -22827,7 +22827,7 @@
         <v>1.46</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU110" t="n">
         <v>1.6</v>
@@ -23030,7 +23030,7 @@
         <v>0.85</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -23842,7 +23842,7 @@
         <v>1.77</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU115" t="n">
         <v>2.32</v>
@@ -24042,7 +24042,7 @@
         <v>1.57</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT116" t="n">
         <v>2</v>
@@ -25463,7 +25463,7 @@
         <v>0.14</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT123" t="n">
         <v>0.33</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU127" t="n">
         <v>1.46</v>
@@ -26681,10 +26681,10 @@
         <v>2.71</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT129" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU129" t="n">
         <v>1.34</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT130" t="n">
         <v>0.42</v>
@@ -27087,7 +27087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT131" t="n">
         <v>0.75</v>
@@ -27293,7 +27293,7 @@
         <v>1.08</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -28105,7 +28105,7 @@
         <v>2.67</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU136" t="n">
         <v>2.22</v>
@@ -28711,7 +28711,7 @@
         <v>0.88</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT139" t="n">
         <v>0.92</v>
@@ -28917,7 +28917,7 @@
         <v>1.83</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU140" t="n">
         <v>1.79</v>
@@ -29117,7 +29117,7 @@
         <v>1</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT141" t="n">
         <v>1.36</v>
@@ -29729,7 +29729,7 @@
         <v>1.77</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU144" t="n">
         <v>2.25</v>
@@ -30135,7 +30135,7 @@
         <v>1.08</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU146" t="n">
         <v>1.49</v>
@@ -30338,7 +30338,7 @@
         <v>1.42</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU147" t="n">
         <v>1.33</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT151" t="n">
         <v>0.83</v>
@@ -31553,10 +31553,10 @@
         <v>2.78</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU153" t="n">
         <v>1.79</v>
@@ -32365,7 +32365,7 @@
         <v>0.8</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT157" t="n">
         <v>0.6899999999999999</v>
@@ -32771,7 +32771,7 @@
         <v>0.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT159" t="n">
         <v>0.42</v>
@@ -33380,7 +33380,7 @@
         <v>1</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT162" t="n">
         <v>0.83</v>
@@ -33786,7 +33786,7 @@
         <v>0.6</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT164" t="n">
         <v>0.77</v>
@@ -34195,7 +34195,7 @@
         <v>1.08</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU166" t="n">
         <v>1.52</v>
@@ -34598,10 +34598,10 @@
         <v>0.89</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU168" t="n">
         <v>1.91</v>
@@ -34804,7 +34804,7 @@
         <v>1</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU169" t="n">
         <v>1.46</v>
@@ -35004,7 +35004,7 @@
         <v>1.8</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT170" t="n">
         <v>2</v>
@@ -36022,7 +36022,7 @@
         <v>2.67</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU175" t="n">
         <v>2.25</v>
@@ -36628,7 +36628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT178" t="n">
         <v>0.75</v>
@@ -36831,7 +36831,7 @@
         <v>1.4</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT179" t="n">
         <v>1.5</v>
@@ -37237,7 +37237,7 @@
         <v>0.91</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT181" t="n">
         <v>1</v>
@@ -37443,7 +37443,7 @@
         <v>0.85</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU182" t="n">
         <v>1.31</v>
@@ -37643,10 +37643,10 @@
         <v>1.4</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU183" t="n">
         <v>1.91</v>
@@ -38052,7 +38052,7 @@
         <v>1</v>
       </c>
       <c r="AT185" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU185" t="n">
         <v>1.52</v>
@@ -40540,6 +40540,818 @@
       </c>
       <c r="BK197" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4699886</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45020.33333333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Chiangrai United</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Port FC</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2</v>
+      </c>
+      <c r="M198" t="n">
+        <v>3</v>
+      </c>
+      <c r="N198" t="n">
+        <v>5</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['24', '41']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['68', '80', '86']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>4</v>
+      </c>
+      <c r="R198" t="n">
+        <v>7</v>
+      </c>
+      <c r="S198" t="n">
+        <v>11</v>
+      </c>
+      <c r="T198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4699887</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45020.33333333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>8</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4699882</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45020.35416666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Muang Thong United</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>2</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2</v>
+      </c>
+      <c r="L200" t="n">
+        <v>3</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['18', '45+1', '87']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>9</v>
+      </c>
+      <c r="R200" t="n">
+        <v>4</v>
+      </c>
+      <c r="S200" t="n">
+        <v>13</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V200" t="n">
+        <v>5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4699884</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45020.375</v>
+      </c>
+      <c r="F201" t="n">
+        <v>25</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Bangkok United</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Buriram United</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>2</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3</v>
+      </c>
+      <c r="L201" t="n">
+        <v>4</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3</v>
+      </c>
+      <c r="N201" t="n">
+        <v>7</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['35', '66', '78', '90+5']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['11', '33', '81']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>10</v>
+      </c>
+      <c r="R201" t="n">
+        <v>8</v>
+      </c>
+      <c r="S201" t="n">
+        <v>18</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.38</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.85</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT11" t="n">
         <v>1.17</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT14" t="n">
         <v>0.42</v>
@@ -3948,7 +3948,7 @@
         <v>1.46</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU17" t="n">
         <v>1.67</v>
@@ -4963,7 +4963,7 @@
         <v>1.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU22" t="n">
         <v>1.28</v>
@@ -5572,7 +5572,7 @@
         <v>2.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>2.38</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT27" t="n">
         <v>0.83</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU28" t="n">
         <v>3.47</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT31" t="n">
         <v>0.77</v>
@@ -7196,7 +7196,7 @@
         <v>1.46</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU33" t="n">
         <v>1.87</v>
@@ -7399,7 +7399,7 @@
         <v>1.92</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU34" t="n">
         <v>2.04</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT39" t="n">
         <v>1.42</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT42" t="n">
         <v>2.46</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT43" t="n">
         <v>1.17</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT44" t="n">
         <v>0.77</v>
@@ -9632,7 +9632,7 @@
         <v>0.85</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU45" t="n">
         <v>0.76</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT47" t="n">
         <v>1.42</v>
@@ -10241,7 +10241,7 @@
         <v>1.46</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU48" t="n">
         <v>1.77</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT49" t="n">
         <v>0.77</v>
@@ -10647,7 +10647,7 @@
         <v>1.92</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU50" t="n">
         <v>1.64</v>
@@ -10847,7 +10847,7 @@
         <v>0.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT51" t="n">
         <v>1.36</v>
@@ -11256,7 +11256,7 @@
         <v>1.77</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU53" t="n">
         <v>2.12</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>0.85</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU62" t="n">
         <v>1.1</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT63" t="n">
         <v>1.42</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>1.46</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU65" t="n">
         <v>1.65</v>
@@ -14098,7 +14098,7 @@
         <v>2.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU67" t="n">
         <v>2.57</v>
@@ -14704,7 +14704,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT70" t="n">
         <v>0.77</v>
@@ -14907,7 +14907,7 @@
         <v>0.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT71" t="n">
         <v>1.36</v>
@@ -15110,10 +15110,10 @@
         <v>0.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.82</v>
@@ -15519,7 +15519,7 @@
         <v>1.92</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU74" t="n">
         <v>1.64</v>
@@ -16531,7 +16531,7 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT79" t="n">
         <v>0.92</v>
@@ -17140,10 +17140,10 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.54</v>
@@ -17343,10 +17343,10 @@
         <v>0.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU83" t="n">
         <v>1.48</v>
@@ -17549,7 +17549,7 @@
         <v>1.77</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU84" t="n">
         <v>2.15</v>
@@ -17749,7 +17749,7 @@
         <v>0.2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT85" t="n">
         <v>0.42</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU99" t="n">
         <v>1.88</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT100" t="n">
         <v>1.5</v>
@@ -21000,7 +21000,7 @@
         <v>1.92</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU101" t="n">
         <v>1.64</v>
@@ -21406,7 +21406,7 @@
         <v>1.17</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU103" t="n">
         <v>1.71</v>
@@ -21606,7 +21606,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT104" t="n">
         <v>2</v>
@@ -22421,7 +22421,7 @@
         <v>1.46</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU108" t="n">
         <v>1.27</v>
@@ -24042,7 +24042,7 @@
         <v>1.57</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT116" t="n">
         <v>2</v>
@@ -24245,7 +24245,7 @@
         <v>0.86</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT117" t="n">
         <v>0.83</v>
@@ -24451,7 +24451,7 @@
         <v>1.17</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU118" t="n">
         <v>1.63</v>
@@ -24651,7 +24651,7 @@
         <v>0.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT119" t="n">
         <v>0.42</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU120" t="n">
         <v>1.45</v>
@@ -25057,10 +25057,10 @@
         <v>0.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU121" t="n">
         <v>1.37</v>
@@ -25466,7 +25466,7 @@
         <v>2.38</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU123" t="n">
         <v>1.87</v>
@@ -25872,7 +25872,7 @@
         <v>1.62</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU125" t="n">
         <v>1.64</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU131" t="n">
         <v>1.77</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT132" t="n">
         <v>1.42</v>
@@ -27699,7 +27699,7 @@
         <v>1.42</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28305,7 +28305,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT137" t="n">
         <v>0.77</v>
@@ -28914,7 +28914,7 @@
         <v>2.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT140" t="n">
         <v>2.46</v>
@@ -29526,7 +29526,7 @@
         <v>1.62</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU143" t="n">
         <v>1.62</v>
@@ -29932,7 +29932,7 @@
         <v>0.85</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU145" t="n">
         <v>1.4</v>
@@ -30132,7 +30132,7 @@
         <v>1.75</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT146" t="n">
         <v>1.17</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU148" t="n">
         <v>1.46</v>
@@ -30944,7 +30944,7 @@
         <v>1.75</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT150" t="n">
         <v>1.5</v>
@@ -31150,7 +31150,7 @@
         <v>2.38</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU151" t="n">
         <v>1.89</v>
@@ -31553,7 +31553,7 @@
         <v>2.78</v>
       </c>
       <c r="AS153" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT153" t="n">
         <v>2.46</v>
@@ -31959,7 +31959,7 @@
         <v>0.78</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT155" t="n">
         <v>0.92</v>
@@ -32368,7 +32368,7 @@
         <v>1.92</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU157" t="n">
         <v>1.37</v>
@@ -32571,7 +32571,7 @@
         <v>1.92</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU158" t="n">
         <v>1.66</v>
@@ -32977,7 +32977,7 @@
         <v>1.17</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33786,7 +33786,7 @@
         <v>0.6</v>
       </c>
       <c r="AS164" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT164" t="n">
         <v>0.77</v>
@@ -34192,7 +34192,7 @@
         <v>2.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT166" t="n">
         <v>2.46</v>
@@ -34398,7 +34398,7 @@
         <v>1.42</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -35210,7 +35210,7 @@
         <v>1.77</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU171" t="n">
         <v>2.2</v>
@@ -35413,7 +35413,7 @@
         <v>1.62</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU172" t="n">
         <v>1.54</v>
@@ -35816,10 +35816,10 @@
         <v>0.1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU174" t="n">
         <v>1.73</v>
@@ -36222,7 +36222,7 @@
         <v>0.7</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT176" t="n">
         <v>0.92</v>
@@ -36631,7 +36631,7 @@
         <v>1.46</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU178" t="n">
         <v>1.44</v>
@@ -37237,7 +37237,7 @@
         <v>0.91</v>
       </c>
       <c r="AS181" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT181" t="n">
         <v>1</v>
@@ -38252,7 +38252,7 @@
         <v>1.23</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT186" t="n">
         <v>1.36</v>
@@ -38458,7 +38458,7 @@
         <v>1.17</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38661,7 +38661,7 @@
         <v>2.67</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU188" t="n">
         <v>2.21</v>
@@ -39267,7 +39267,7 @@
         <v>0.36</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT191" t="n">
         <v>0.42</v>
@@ -39473,7 +39473,7 @@
         <v>1.92</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU192" t="n">
         <v>1.64</v>
@@ -39673,7 +39673,7 @@
         <v>1.91</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT193" t="n">
         <v>2</v>
@@ -40082,7 +40082,7 @@
         <v>1.62</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU195" t="n">
         <v>1.5</v>
@@ -41094,7 +41094,7 @@
         <v>0.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT200" t="n">
         <v>0.77</v>
@@ -41352,6 +41352,818 @@
       </c>
       <c r="BK201" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4699889</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45024.33333333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>BEC Tero Sasana</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['7', '55']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['46', '82']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>8</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4699890</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45024.35416666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Bangkok Glass</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Nakhon Ratchasima</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>5</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>7</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['57', '72', '73', '83', '90+3']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['34', '53']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>11</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>13</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V203" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4699891</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Nong Bua Pitchaya</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>5</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>6</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['10', '13', '60', '68', '87']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>7</v>
+      </c>
+      <c r="R204" t="n">
+        <v>7</v>
+      </c>
+      <c r="S204" t="n">
+        <v>14</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4699892</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45024.39583333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Muang Thong United</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Khon Kaen United</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['9', '32']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>5</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V205" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Thailand Thai League T1_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.77</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT9" t="n">
         <v>0.85</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.42</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>0.92</v>
@@ -4151,7 +4151,7 @@
         <v>0.85</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU18" t="n">
         <v>1.12</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT19" t="n">
         <v>2.46</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT23" t="n">
         <v>0.77</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU24" t="n">
         <v>1.37</v>
@@ -5775,7 +5775,7 @@
         <v>1.42</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU26" t="n">
         <v>1.47</v>
@@ -5978,7 +5978,7 @@
         <v>1.23</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.64</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT30" t="n">
         <v>0.77</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT32" t="n">
         <v>0.92</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>0.64</v>
@@ -7602,7 +7602,7 @@
         <v>1.92</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU35" t="n">
         <v>1.44</v>
@@ -8008,7 +8008,7 @@
         <v>1.46</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU37" t="n">
         <v>1.52</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT38" t="n">
         <v>1.36</v>
@@ -8617,7 +8617,7 @@
         <v>1.42</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.3</v>
@@ -11053,7 +11053,7 @@
         <v>1.62</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU52" t="n">
         <v>1.63</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT53" t="n">
         <v>0.31</v>
@@ -11456,10 +11456,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU54" t="n">
         <v>2.03</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT55" t="n">
         <v>0.92</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT56" t="n">
         <v>2.46</v>
@@ -12068,7 +12068,7 @@
         <v>1.46</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU57" t="n">
         <v>1.45</v>
@@ -12677,7 +12677,7 @@
         <v>2.38</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>2.18</v>
@@ -13895,7 +13895,7 @@
         <v>1.62</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.7</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT67" t="n">
         <v>0.31</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU68" t="n">
         <v>2.08</v>
@@ -14501,10 +14501,10 @@
         <v>0.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU69" t="n">
         <v>1.8</v>
@@ -15316,7 +15316,7 @@
         <v>2.38</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU73" t="n">
         <v>2.1</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT84" t="n">
         <v>0.85</v>
@@ -17752,7 +17752,7 @@
         <v>1.92</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -17952,7 +17952,7 @@
         <v>0.4</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT86" t="n">
         <v>1.36</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.76</v>
@@ -18361,7 +18361,7 @@
         <v>1.46</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18561,10 +18561,10 @@
         <v>2.2</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU89" t="n">
         <v>2.42</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>2.22</v>
@@ -20797,7 +20797,7 @@
         <v>1.23</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>1.42</v>
@@ -20997,7 +20997,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT101" t="n">
         <v>0.6899999999999999</v>
@@ -21403,7 +21403,7 @@
         <v>0.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT103" t="n">
         <v>0.64</v>
@@ -21609,7 +21609,7 @@
         <v>1.62</v>
       </c>
       <c r="AT104" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU104" t="n">
         <v>1.46</v>
@@ -21809,10 +21809,10 @@
         <v>0.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU105" t="n">
         <v>2.26</v>
@@ -22621,7 +22621,7 @@
         <v>2.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
         <v>2.46</v>
@@ -23636,10 +23636,10 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU114" t="n">
         <v>2.23</v>
@@ -23839,7 +23839,7 @@
         <v>1.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT115" t="n">
         <v>1.42</v>
@@ -24045,7 +24045,7 @@
         <v>2.08</v>
       </c>
       <c r="AT116" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -24248,7 +24248,7 @@
         <v>1.92</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.84</v>
@@ -24448,7 +24448,7 @@
         <v>1.29</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT118" t="n">
         <v>0.85</v>
@@ -24654,7 +24654,7 @@
         <v>1.23</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU119" t="n">
         <v>1.43</v>
@@ -26072,7 +26072,7 @@
         <v>0.71</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>0.77</v>
@@ -26478,7 +26478,7 @@
         <v>1.14</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26887,7 +26887,7 @@
         <v>2.38</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU130" t="n">
         <v>1.83</v>
@@ -27496,7 +27496,7 @@
         <v>1</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.43</v>
@@ -27899,10 +27899,10 @@
         <v>1.86</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT136" t="n">
         <v>1.17</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -29323,7 +29323,7 @@
         <v>1.46</v>
       </c>
       <c r="AT142" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU142" t="n">
         <v>1.64</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT144" t="n">
         <v>0.77</v>
@@ -30741,7 +30741,7 @@
         <v>0.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT149" t="n">
         <v>0.77</v>
@@ -30947,7 +30947,7 @@
         <v>1.62</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU150" t="n">
         <v>1.37</v>
@@ -31353,7 +31353,7 @@
         <v>0.85</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.41</v>
@@ -31759,7 +31759,7 @@
         <v>1.62</v>
       </c>
       <c r="AT154" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU154" t="n">
         <v>1.6</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -32568,7 +32568,7 @@
         <v>0.11</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT158" t="n">
         <v>0.31</v>
@@ -32774,7 +32774,7 @@
         <v>1.46</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU159" t="n">
         <v>1.32</v>
@@ -32974,7 +32974,7 @@
         <v>0.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT160" t="n">
         <v>0.6899999999999999</v>
@@ -33177,7 +33177,7 @@
         <v>0.91</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT161" t="n">
         <v>1.36</v>
@@ -33383,7 +33383,7 @@
         <v>1.46</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.39</v>
@@ -33583,7 +33583,7 @@
         <v>0.9</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -33992,7 +33992,7 @@
         <v>0.85</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU165" t="n">
         <v>1.33</v>
@@ -35007,7 +35007,7 @@
         <v>1.92</v>
       </c>
       <c r="AT170" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU170" t="n">
         <v>1.36</v>
@@ -35207,7 +35207,7 @@
         <v>0.73</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT171" t="n">
         <v>0.64</v>
@@ -35616,7 +35616,7 @@
         <v>1.46</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -36019,7 +36019,7 @@
         <v>0.91</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT175" t="n">
         <v>0.77</v>
@@ -36425,7 +36425,7 @@
         <v>1.08</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT177" t="n">
         <v>1.36</v>
@@ -36834,7 +36834,7 @@
         <v>1.92</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU179" t="n">
         <v>1.31</v>
@@ -37034,7 +37034,7 @@
         <v>0.73</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT180" t="n">
         <v>0.92</v>
@@ -38455,7 +38455,7 @@
         <v>0.36</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT187" t="n">
         <v>0.31</v>
@@ -38658,7 +38658,7 @@
         <v>0.75</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT188" t="n">
         <v>0.64</v>
@@ -38864,7 +38864,7 @@
         <v>1.46</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU189" t="n">
         <v>1.71</v>
@@ -39064,10 +39064,10 @@
         <v>1.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU190" t="n">
         <v>2.19</v>
@@ -39270,7 +39270,7 @@
         <v>1.62</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU191" t="n">
         <v>1.43</v>
@@ -39470,7 +39470,7 @@
         <v>0.91</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT192" t="n">
         <v>0.85</v>
@@ -39676,7 +39676,7 @@
         <v>1.92</v>
       </c>
       <c r="AT193" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU193" t="n">
         <v>1.76</v>
@@ -42164,6 +42164,818 @@
       </c>
       <c r="BK205" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4699895</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45025.3125</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Chonburi</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Chiangrai United</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2</v>
+      </c>
+      <c r="K206" t="n">
+        <v>3</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>3</v>
+      </c>
+      <c r="N206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['15', '34', '82']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2</v>
+      </c>
+      <c r="S206" t="n">
+        <v>5</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V206" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4699893</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45025.33333333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Bangkok United</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>3</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['8', '42']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>4</v>
+      </c>
+      <c r="R207" t="n">
+        <v>6</v>
+      </c>
+      <c r="S207" t="n">
+        <v>10</v>
+      </c>
+      <c r="T207" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4699894</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45025.33333333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Port FC</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>1</v>
+      </c>
+      <c r="R208" t="n">
+        <v>6</v>
+      </c>
+      <c r="S208" t="n">
+        <v>7</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V208" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4699896</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Thailand Thai League T1</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45025.375</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Buriram United</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Lampang</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>2</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['5', '19']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>8</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
+      <c r="S209" t="n">
+        <v>8</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V209" t="n">
+        <v>11</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X209" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
